--- a/public/assets/result/Arji_5.xlsx
+++ b/public/assets/result/Arji_5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -115,13 +115,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>SUGIONO</t>
+    <t>ARJI</t>
   </si>
 </sst>
 </file>
@@ -874,16 +871,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="J13" s="5">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="K13" s="5">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="L13" s="5">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -911,16 +908,16 @@
         <v>25</v>
       </c>
       <c r="I14" s="5">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="L14" s="5">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -1009,9 +1006,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="K21" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="N21" s="1"/>
     </row>
@@ -1027,10 +1022,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="D24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="L24" s="4"/>
       <c r="N24" s="1"/>
